--- a/MemoryFiles/TestWorkBook.xlsx
+++ b/MemoryFiles/TestWorkBook.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,8 +530,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
-CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "wants_meal_plan": false, "time_horizon": null, "query": "I want to start cutting. Can you suggest a meal plan for the week?"}
-Alice asked for low-calorie vegan breakfast ideas.</t>
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "wants_meal_plan": false, "time_horizon": null, "query": "recommend high protein chicken recipes"}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/MemoryFiles/TestWorkBook.xlsx
+++ b/MemoryFiles/TestWorkBook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
-CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "wants_meal_plan": false, "time_horizon": null, "query": "recommend high protein chicken recipes"}</t>
+CONTEXT: DETAIL_REQUEST: index 1 -&gt; Whole Chicken Dinner</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -554,6 +554,116 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "inventory": [], "wants_meal_plan": false, "time_horizon": null, "query": "Give me chicken recipes", "focus_nutrient": null}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DebugUser</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "inventory": [], "wants_meal_plan": false, "time_horizon": null, "query": "give me fish recipes", "focus_nutrient": null}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>debuguser2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": "eating healthier", "likes": ["garlic", "chicken", "pasta"], "dislikes": ["mushroom"], "inventory": ["garlic", "salt", "olive oil", "pepper"], "allergies": []}
+CONTEXT: Initial setup
+User requested chicken pasta recipes; top recommendation shown.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ishaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>allergy, gluten-free, gluten free,  allergy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": "bulking", "likes": ["fish", "sourdough", "cheese"], "dislikes": ["gluten"], "inventory": ["olive oil", "pepper", "garlic", "salt"], "allergies": [""]}
+CONTEXT: ANALYSIS: {"objective": "bulking", "dietary_restrictions": ["allergy", "gluten-free", "gluten free"], "allergies": [""], "likes": ["fish", "sourdough", "cheese"], "dislikes": ["gluten"], "inventory": ["olive oil", "pepper", "garlic", "salt"], "wants_meal_plan": false, "time_horizon": null, "query": "give me high fiber vegetable recipes", "focus_nutrient": "fiber"}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tony</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": ["potatoes", "chicken fillets"], "allergies": []}
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "inventory": ["potatoes", "chicken fillets"], "wants_meal_plan": false, "time_horizon": null, "query": "give me high protein recipes based on the image", "focus_nutrient": "protein"}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ishaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "inventory": [], "wants_meal_plan": false, "time_horizon": null, "query": "I am a pescatarian but am allergic to dairy. I am trying to bulk. I currently have fish, potatoes, spinach in my inventory. Please suggest high protein fish recipes", "focus_nutrient": "protein"}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Saketh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PROFILE_DATA: {"objective": null, "likes": [], "dislikes": [], "inventory": [], "allergies": []}
+CONTEXT: ANALYSIS: {"objective": null, "dietary_restrictions": [], "allergies": [], "likes": [], "dislikes": [], "inventory": [], "wants_meal_plan": false, "time_horizon": null, "query": "I am a pescatarian who is looking to bulk up. I currently have fish, potatoes and spinach in my inventory. Please suggest high protein fish recipes", "focus_nutrient": "protein"}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
